--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_20_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_20_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2352534.834852971</v>
+        <v>-2355454.741539245</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12450191.8482331</v>
+        <v>12450191.84823311</v>
       </c>
     </row>
     <row r="8">
@@ -668,64 +668,64 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.562286607642875</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>4.562286607642875</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4.562286607642875</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>4.018462044011843</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4.562286607642875</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>4.562286607642875</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>4.562286607642875</v>
       </c>
     </row>
     <row r="3">
@@ -741,14 +741,14 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
     </row>
     <row r="4">
@@ -814,61 +814,61 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.562286607642875</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.018462044011843</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
       <c r="T4" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1.350839134384391</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.87638523748973</v>
+        <v>13.87638523748971</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>25.09453918436142</v>
       </c>
       <c r="I5" t="n">
-        <v>25.09453918435796</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.09453918435796</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.35083913438131</v>
+        <v>25.09453918436142</v>
       </c>
       <c r="U5" t="n">
-        <v>25.09453918435796</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>25.09453918436142</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -978,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>25.09453918436142</v>
       </c>
       <c r="E6" t="n">
-        <v>22.10327011358247</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>25.09453918435796</v>
+        <v>25.09453918436142</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>25.09453918435796</v>
+        <v>25.09453918436142</v>
       </c>
       <c r="S6" t="n">
-        <v>25.09453918435796</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>22.10327011358553</v>
       </c>
     </row>
     <row r="7">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>22.10327011358247</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.09453918435796</v>
+        <v>25.09453918436142</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.09453918435796</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>25.09453918436142</v>
       </c>
       <c r="U7" t="n">
-        <v>25.09453918435796</v>
+        <v>25.09453918436142</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>22.10327011358554</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>48.84734916635383</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,11 +1212,11 @@
         <v>112.1126601249237</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>36.57392307749219</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>98.74883103803275</v>
+      </c>
+      <c r="X9" t="n">
         <v>112.1126601249237</v>
-      </c>
-      <c r="T9" t="n">
-        <v>62.17490796054056</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>84.48026621731221</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>32.65832442698833</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>51.82194179032386</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="Y10" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>213.8614881801135</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>284.4297735342307</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1528,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>93.68345300136666</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>264.9282693816767</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.1644063769637</v>
+        <v>353.8595121020206</v>
       </c>
       <c r="H14" t="n">
         <v>286.8518683469699</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.9303487751657</v>
+        <v>91.93034877516574</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>200.6028050067863</v>
       </c>
       <c r="U14" t="n">
-        <v>8.994558492574724</v>
+        <v>250.9345864167828</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H15" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116146</v>
       </c>
       <c r="I15" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189021</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T15" t="n">
         <v>189.0833237787849</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>95.38166972943704</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>160.5631541414692</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H16" t="n">
-        <v>141.7347076965137</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>86.13649374674407</v>
+        <v>86.13649374674408</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.65767465442971</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>183.8488525946973</v>
@@ -1819,13 +1819,13 @@
         <v>218.097472392356</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1933087134791</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112669</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187938</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D17" t="n">
-        <v>323.0728392684692</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200481</v>
+        <v>350.3201677200476</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894977</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G17" t="n">
-        <v>378.55420402475</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
-        <v>255.2416659947561</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295191</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545725</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
-        <v>219.324384064569</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V17" t="n">
-        <v>296.1420561179212</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W17" t="n">
-        <v>317.6307663651993</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X17" t="n">
-        <v>338.1208983262553</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038399</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H18" t="n">
-        <v>85.68348164116144</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.86620090218895</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T18" t="n">
         <v>189.0833237787849</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297235</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C19" t="n">
-        <v>135.6366187464141</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659986</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943554</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707137</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510284</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442999</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453029</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221592</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424835</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
-        <v>186.4872700401422</v>
+        <v>186.4872700401427</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612653</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V19" t="n">
-        <v>220.5274409716143</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W19" t="n">
-        <v>254.9127959843773</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368234</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.974450999881</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H20" t="n">
-        <v>255.2416659947557</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>296.142056117921</v>
       </c>
       <c r="W20" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651987</v>
       </c>
       <c r="X20" t="n">
         <v>338.1208983262551</v>
@@ -2293,7 +2293,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V22" t="n">
         <v>220.5274409716141</v>
@@ -2318,7 +2318,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D23" t="n">
         <v>323.072839268469</v>
@@ -2327,10 +2327,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F23" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G23" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H23" t="n">
         <v>255.2416659947559</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V23" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W23" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X23" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y23" t="n">
         <v>354.6277363038396</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C25" t="n">
         <v>135.6366187464139</v>
@@ -2494,7 +2494,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
@@ -2530,13 +2530,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V25" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W25" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X25" t="n">
         <v>194.0994530368232</v>
@@ -2555,7 +2555,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D26" t="n">
         <v>323.072839268469</v>
@@ -2564,10 +2564,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G26" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H26" t="n">
         <v>255.2416659947559</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V26" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W26" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X26" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
         <v>354.6277363038396</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C28" t="n">
         <v>135.6366187464139</v>
@@ -2719,7 +2719,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F28" t="n">
         <v>113.8108456707173</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V28" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W28" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D29" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H29" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295185</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V29" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W29" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X29" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H30" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I30" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C31" t="n">
         <v>135.6366187464139</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707156</v>
       </c>
       <c r="G31" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453019</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T31" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V31" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W31" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D32" t="n">
         <v>323.072839268469</v>
@@ -3038,10 +3038,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H32" t="n">
         <v>255.2416659947559</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U32" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W32" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X32" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y32" t="n">
         <v>354.6277363038396</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C34" t="n">
         <v>135.6366187464139</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3241,13 +3241,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V34" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W34" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X34" t="n">
         <v>194.0994530368232</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D35" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G35" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H35" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295183</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V35" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W35" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X35" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C37" t="n">
         <v>135.6366187464139</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707183</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G37" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453008</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S37" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T37" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V37" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W37" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D38" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F38" t="n">
         <v>375.2658433894975</v>
@@ -3518,7 +3518,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295184</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545717</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V38" t="n">
-        <v>296.1420561179206</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W38" t="n">
         <v>317.6307663651991</v>
@@ -3569,7 +3569,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297234</v>
+        <v>148.221777829722</v>
       </c>
       <c r="C40" t="n">
         <v>135.6366187464139</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G40" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T40" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U40" t="n">
         <v>254.5831063612652</v>
@@ -3724,10 +3724,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="41">
@@ -3916,7 +3916,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.5262913945301</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221576</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
@@ -3992,7 +3992,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H44" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994754</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V44" t="n">
         <v>296.142056117921</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U46" t="n">
         <v>254.5831063612652</v>
@@ -4201,7 +4201,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.032405809070742</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="C2" t="n">
-        <v>9.032405809070742</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="D2" t="n">
-        <v>9.032405809070742</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="E2" t="n">
-        <v>9.032405809070742</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="F2" t="n">
         <v>4.973353239361809</v>
       </c>
       <c r="G2" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="H2" t="n">
         <v>0.36498292861143</v>
@@ -4352,28 +4352,28 @@
         <v>18.2491464305715</v>
       </c>
       <c r="R2" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="S2" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="T2" t="n">
         <v>13.64077611982112</v>
       </c>
       <c r="U2" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="V2" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="W2" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="X2" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.032405809070742</v>
+        <v>4.973353239361809</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>9.581723550112187</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9.581723550112187</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.581723550112187</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9.581723550112187</v>
+      </c>
+      <c r="F3" t="n">
         <v>4.973353239361809</v>
       </c>
-      <c r="C3" t="n">
+      <c r="G3" t="n">
         <v>4.973353239361809</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.36498292861143</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.36498292861143</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.36498292861143</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.36498292861143</v>
-      </c>
       <c r="H3" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="I3" t="n">
         <v>0.36498292861143</v>
@@ -4413,13 +4413,13 @@
         <v>0.36498292861143</v>
       </c>
       <c r="L3" t="n">
-        <v>4.881646670177876</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="M3" t="n">
-        <v>9.398310411744323</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="N3" t="n">
-        <v>13.91497415331077</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="O3" t="n">
         <v>18.2491464305715</v>
@@ -4440,19 +4440,19 @@
         <v>18.2491464305715</v>
       </c>
       <c r="U3" t="n">
-        <v>14.19009386086257</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="V3" t="n">
-        <v>14.19009386086257</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="W3" t="n">
+        <v>18.2491464305715</v>
+      </c>
+      <c r="X3" t="n">
+        <v>13.64077611982112</v>
+      </c>
+      <c r="Y3" t="n">
         <v>9.581723550112187</v>
-      </c>
-      <c r="X3" t="n">
-        <v>4.973353239361809</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>4.973353239361809</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.64077611982112</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="C4" t="n">
-        <v>13.64077611982112</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="D4" t="n">
-        <v>9.032405809070742</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="E4" t="n">
-        <v>9.032405809070742</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F4" t="n">
-        <v>9.032405809070742</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G4" t="n">
-        <v>9.032405809070742</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H4" t="n">
-        <v>9.032405809070742</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I4" t="n">
-        <v>4.424035498320363</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J4" t="n">
         <v>0.36498292861143</v>
       </c>
       <c r="K4" t="n">
-        <v>0.36498292861143</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="L4" t="n">
-        <v>4.881646670177876</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="M4" t="n">
-        <v>9.398310411744323</v>
+        <v>13.91497415331077</v>
       </c>
       <c r="N4" t="n">
-        <v>9.398310411744323</v>
+        <v>13.91497415331077</v>
       </c>
       <c r="O4" t="n">
-        <v>13.73248268900505</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="P4" t="n">
         <v>18.2491464305715</v>
@@ -4513,7 +4513,7 @@
         <v>18.2491464305715</v>
       </c>
       <c r="S4" t="n">
-        <v>18.2491464305715</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="T4" t="n">
         <v>13.64077611982112</v>
@@ -4525,13 +4525,13 @@
         <v>13.64077611982112</v>
       </c>
       <c r="W4" t="n">
-        <v>13.64077611982112</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="X4" t="n">
-        <v>13.64077611982112</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.64077611982112</v>
+        <v>9.581723550112187</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48.31763400703058</v>
+        <v>49.68211798115999</v>
       </c>
       <c r="C5" t="n">
-        <v>48.31763400703058</v>
+        <v>49.68211798115999</v>
       </c>
       <c r="D5" t="n">
-        <v>48.31763400703058</v>
+        <v>49.68211798115999</v>
       </c>
       <c r="E5" t="n">
-        <v>48.31763400703058</v>
+        <v>48.31763400703434</v>
       </c>
       <c r="F5" t="n">
-        <v>41.37213325782711</v>
+        <v>41.37213325783087</v>
       </c>
       <c r="G5" t="n">
-        <v>27.35558251288799</v>
+        <v>27.35558251289177</v>
       </c>
       <c r="H5" t="n">
-        <v>27.35558251288799</v>
+        <v>2.007563134748914</v>
       </c>
       <c r="I5" t="n">
-        <v>2.007563134748636</v>
+        <v>2.007563134748914</v>
       </c>
       <c r="J5" t="n">
-        <v>26.85115692726301</v>
+        <v>2.007563134748914</v>
       </c>
       <c r="K5" t="n">
-        <v>26.85115692726301</v>
+        <v>2.007563134748914</v>
       </c>
       <c r="L5" t="n">
-        <v>30.78331046903486</v>
+        <v>26.85115692726672</v>
       </c>
       <c r="M5" t="n">
-        <v>50.69096915240306</v>
+        <v>46.7588156106383</v>
       </c>
       <c r="N5" t="n">
-        <v>75.53456294491744</v>
+        <v>71.60240940315612</v>
       </c>
       <c r="O5" t="n">
-        <v>100.3781567374318</v>
+        <v>81.72624929260158</v>
       </c>
       <c r="P5" t="n">
-        <v>100.3781567374318</v>
+        <v>100.3781567374457</v>
       </c>
       <c r="Q5" t="n">
-        <v>100.3781567374318</v>
+        <v>100.3781567374457</v>
       </c>
       <c r="R5" t="n">
-        <v>75.03013735929247</v>
+        <v>100.3781567374457</v>
       </c>
       <c r="S5" t="n">
-        <v>75.03013735929247</v>
+        <v>100.3781567374457</v>
       </c>
       <c r="T5" t="n">
-        <v>73.66565338516993</v>
+        <v>75.03013735930284</v>
       </c>
       <c r="U5" t="n">
-        <v>48.31763400703058</v>
+        <v>75.03013735930284</v>
       </c>
       <c r="V5" t="n">
-        <v>48.31763400703058</v>
+        <v>49.68211798115999</v>
       </c>
       <c r="W5" t="n">
-        <v>48.31763400703058</v>
+        <v>49.68211798115999</v>
       </c>
       <c r="X5" t="n">
-        <v>48.31763400703058</v>
+        <v>49.68211798115999</v>
       </c>
       <c r="Y5" t="n">
-        <v>48.31763400703058</v>
+        <v>49.68211798115999</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49.68211798115311</v>
+        <v>52.70360189103462</v>
       </c>
       <c r="C6" t="n">
-        <v>49.68211798115311</v>
+        <v>52.70360189103462</v>
       </c>
       <c r="D6" t="n">
-        <v>49.68211798115311</v>
+        <v>27.35558251289177</v>
       </c>
       <c r="E6" t="n">
-        <v>27.35558251288799</v>
+        <v>27.35558251289177</v>
       </c>
       <c r="F6" t="n">
-        <v>27.35558251288799</v>
+        <v>27.35558251289177</v>
       </c>
       <c r="G6" t="n">
-        <v>27.35558251288799</v>
+        <v>27.35558251289177</v>
       </c>
       <c r="H6" t="n">
-        <v>27.35558251288799</v>
+        <v>27.35558251289177</v>
       </c>
       <c r="I6" t="n">
-        <v>2.007563134748636</v>
+        <v>2.007563134748914</v>
       </c>
       <c r="J6" t="n">
-        <v>2.007563134748636</v>
+        <v>2.007563134748914</v>
       </c>
       <c r="K6" t="n">
-        <v>2.007563134748636</v>
+        <v>2.007563134748914</v>
       </c>
       <c r="L6" t="n">
-        <v>26.85115692726301</v>
+        <v>26.85115692726672</v>
       </c>
       <c r="M6" t="n">
-        <v>51.69475071977739</v>
+        <v>51.69475071978453</v>
       </c>
       <c r="N6" t="n">
-        <v>76.53834451229176</v>
+        <v>63.895352208619</v>
       </c>
       <c r="O6" t="n">
-        <v>88.7389460011249</v>
+        <v>88.73894600113681</v>
       </c>
       <c r="P6" t="n">
-        <v>100.3781567374318</v>
+        <v>100.3781567374457</v>
       </c>
       <c r="Q6" t="n">
-        <v>100.3781567374318</v>
+        <v>100.3781567374457</v>
       </c>
       <c r="R6" t="n">
-        <v>75.03013735929247</v>
+        <v>75.03013735930284</v>
       </c>
       <c r="S6" t="n">
-        <v>49.68211798115311</v>
+        <v>75.03013735930284</v>
       </c>
       <c r="T6" t="n">
-        <v>49.68211798115311</v>
+        <v>75.03013735930284</v>
       </c>
       <c r="U6" t="n">
-        <v>49.68211798115311</v>
+        <v>75.03013735930284</v>
       </c>
       <c r="V6" t="n">
-        <v>49.68211798115311</v>
+        <v>75.03013735930284</v>
       </c>
       <c r="W6" t="n">
-        <v>49.68211798115311</v>
+        <v>75.03013735930284</v>
       </c>
       <c r="X6" t="n">
-        <v>49.68211798115311</v>
+        <v>75.03013735930284</v>
       </c>
       <c r="Y6" t="n">
-        <v>49.68211798115311</v>
+        <v>52.70360189103462</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.68211798115311</v>
+        <v>27.35558251289177</v>
       </c>
       <c r="C7" t="n">
-        <v>49.68211798115311</v>
+        <v>27.35558251289177</v>
       </c>
       <c r="D7" t="n">
-        <v>49.68211798115311</v>
+        <v>27.35558251289177</v>
       </c>
       <c r="E7" t="n">
-        <v>27.35558251288799</v>
+        <v>27.35558251289177</v>
       </c>
       <c r="F7" t="n">
-        <v>27.35558251288799</v>
+        <v>27.35558251289177</v>
       </c>
       <c r="G7" t="n">
-        <v>27.35558251288799</v>
+        <v>27.35558251289177</v>
       </c>
       <c r="H7" t="n">
-        <v>27.35558251288799</v>
+        <v>27.35558251289177</v>
       </c>
       <c r="I7" t="n">
-        <v>27.35558251288799</v>
+        <v>27.35558251289177</v>
       </c>
       <c r="J7" t="n">
-        <v>2.007563134748636</v>
+        <v>2.007563134748914</v>
       </c>
       <c r="K7" t="n">
-        <v>26.85115692726301</v>
+        <v>2.007563134748914</v>
       </c>
       <c r="L7" t="n">
-        <v>50.69096915240306</v>
+        <v>25.84737535989227</v>
       </c>
       <c r="M7" t="n">
-        <v>75.53456294491744</v>
+        <v>50.69096915241008</v>
       </c>
       <c r="N7" t="n">
-        <v>100.3781567374318</v>
+        <v>75.53456294492788</v>
       </c>
       <c r="O7" t="n">
-        <v>100.3781567374318</v>
+        <v>100.3781567374457</v>
       </c>
       <c r="P7" t="n">
-        <v>100.3781567374318</v>
+        <v>100.3781567374457</v>
       </c>
       <c r="Q7" t="n">
-        <v>75.03013735929247</v>
+        <v>100.3781567374457</v>
       </c>
       <c r="R7" t="n">
-        <v>75.03013735929247</v>
+        <v>100.3781567374457</v>
       </c>
       <c r="S7" t="n">
-        <v>75.03013735929247</v>
+        <v>100.3781567374457</v>
       </c>
       <c r="T7" t="n">
-        <v>75.03013735929247</v>
+        <v>75.03013735930284</v>
       </c>
       <c r="U7" t="n">
-        <v>49.68211798115311</v>
+        <v>49.68211798115999</v>
       </c>
       <c r="V7" t="n">
-        <v>49.68211798115311</v>
+        <v>27.35558251289177</v>
       </c>
       <c r="W7" t="n">
-        <v>49.68211798115311</v>
+        <v>27.35558251289177</v>
       </c>
       <c r="X7" t="n">
-        <v>49.68211798115311</v>
+        <v>27.35558251289177</v>
       </c>
       <c r="Y7" t="n">
-        <v>49.68211798115311</v>
+        <v>27.35558251289177</v>
       </c>
     </row>
     <row r="8">
@@ -4832,19 +4832,19 @@
         <v>418.5145477870889</v>
       </c>
       <c r="T8" t="n">
-        <v>369.1737910533981</v>
+        <v>418.5145477870889</v>
       </c>
       <c r="U8" t="n">
-        <v>369.1737910533981</v>
+        <v>418.5145477870889</v>
       </c>
       <c r="V8" t="n">
-        <v>369.1737910533981</v>
+        <v>418.5145477870889</v>
       </c>
       <c r="W8" t="n">
-        <v>369.1737910533981</v>
+        <v>418.5145477870889</v>
       </c>
       <c r="X8" t="n">
-        <v>369.1737910533981</v>
+        <v>418.5145477870889</v>
       </c>
       <c r="Y8" t="n">
         <v>369.1737910533981</v>
@@ -4860,7 +4860,7 @@
         <v>122.2141240472905</v>
       </c>
       <c r="C9" t="n">
-        <v>8.969012809993892</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="D9" t="n">
         <v>8.969012809993892</v>
@@ -4890,7 +4890,7 @@
         <v>119.1887676792232</v>
       </c>
       <c r="M9" t="n">
-        <v>230.1803012028977</v>
+        <v>176.439439640395</v>
       </c>
       <c r="N9" t="n">
         <v>287.4309731640694</v>
@@ -4905,22 +4905,22 @@
         <v>448.4506404996946</v>
       </c>
       <c r="R9" t="n">
-        <v>411.5072838557631</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="S9" t="n">
-        <v>298.2621726184665</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="T9" t="n">
-        <v>235.4592352845871</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="U9" t="n">
-        <v>235.4592352845871</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="V9" t="n">
-        <v>235.4592352845871</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="W9" t="n">
-        <v>235.4592352845871</v>
+        <v>348.7043465218837</v>
       </c>
       <c r="X9" t="n">
         <v>235.4592352845871</v>
@@ -4936,46 +4936,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>155.2023305391979</v>
+        <v>94.30261504970319</v>
       </c>
       <c r="C10" t="n">
-        <v>41.9572193019013</v>
+        <v>94.30261504970319</v>
       </c>
       <c r="D10" t="n">
-        <v>41.9572193019013</v>
+        <v>94.30261504970319</v>
       </c>
       <c r="E10" t="n">
-        <v>41.9572193019013</v>
+        <v>94.30261504970319</v>
       </c>
       <c r="F10" t="n">
-        <v>41.9572193019013</v>
+        <v>94.30261504970319</v>
       </c>
       <c r="G10" t="n">
-        <v>41.9572193019013</v>
+        <v>94.30261504970319</v>
       </c>
       <c r="H10" t="n">
-        <v>41.9572193019013</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I10" t="n">
-        <v>41.9572193019013</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J10" t="n">
         <v>8.969012809993892</v>
       </c>
       <c r="K10" t="n">
-        <v>85.67486684193852</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="L10" t="n">
-        <v>196.6664003656129</v>
+        <v>115.4760399286714</v>
       </c>
       <c r="M10" t="n">
-        <v>307.6579338892873</v>
+        <v>226.4675734523458</v>
       </c>
       <c r="N10" t="n">
-        <v>348.3432026568694</v>
+        <v>337.4591069760202</v>
       </c>
       <c r="O10" t="n">
-        <v>348.3432026568694</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="P10" t="n">
         <v>448.4506404996946</v>
@@ -4987,25 +4987,25 @@
         <v>434.037948761593</v>
       </c>
       <c r="S10" t="n">
-        <v>434.037948761593</v>
+        <v>320.7928375242964</v>
       </c>
       <c r="T10" t="n">
-        <v>434.037948761593</v>
+        <v>207.5477262869998</v>
       </c>
       <c r="U10" t="n">
-        <v>434.037948761593</v>
+        <v>207.5477262869998</v>
       </c>
       <c r="V10" t="n">
-        <v>434.037948761593</v>
+        <v>207.5477262869998</v>
       </c>
       <c r="W10" t="n">
-        <v>434.037948761593</v>
+        <v>207.5477262869998</v>
       </c>
       <c r="X10" t="n">
-        <v>381.6925530137912</v>
+        <v>94.30261504970319</v>
       </c>
       <c r="Y10" t="n">
-        <v>268.4474417764945</v>
+        <v>94.30261504970319</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1888.09808975843</v>
+        <v>2175.400891308158</v>
       </c>
       <c r="C11" t="n">
-        <v>1519.135572818019</v>
+        <v>1806.438374367747</v>
       </c>
       <c r="D11" t="n">
-        <v>1160.869874211268</v>
+        <v>1448.172675760996</v>
       </c>
       <c r="E11" t="n">
-        <v>775.0816216130238</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>364.0957168234162</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218343</v>
@@ -5042,7 +5042,7 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5054,37 +5054,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="W11" t="n">
-        <v>3038.303020059443</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="X11" t="n">
-        <v>2664.837261798364</v>
+        <v>2952.140063348092</v>
       </c>
       <c r="Y11" t="n">
-        <v>2274.697929822552</v>
+        <v>2562.00073137228</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.8377936138381</v>
+        <v>872.3234075408152</v>
       </c>
       <c r="C13" t="n">
-        <v>163.8377936138381</v>
+        <v>703.3872246129083</v>
       </c>
       <c r="D13" t="n">
-        <v>163.8377936138381</v>
+        <v>553.2705852005726</v>
       </c>
       <c r="E13" t="n">
-        <v>163.8377936138381</v>
+        <v>405.3574916181794</v>
       </c>
       <c r="F13" t="n">
-        <v>163.8377936138381</v>
+        <v>258.4675441202691</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8377936138381</v>
+        <v>258.4675441202691</v>
       </c>
       <c r="H13" t="n">
         <v>163.8377936138381</v>
@@ -5200,16 +5200,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5221,28 +5221,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783663</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>1161.740577577776</v>
       </c>
       <c r="W13" t="n">
-        <v>612.6199236553855</v>
+        <v>872.3234075408152</v>
       </c>
       <c r="X13" t="n">
-        <v>384.6303727573681</v>
+        <v>872.3234075408152</v>
       </c>
       <c r="Y13" t="n">
-        <v>163.8377936138381</v>
+        <v>872.3234075408152</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2313.039625065619</v>
+        <v>2256.165994484868</v>
       </c>
       <c r="C14" t="n">
-        <v>1944.077108125207</v>
+        <v>1887.203477544456</v>
       </c>
       <c r="D14" t="n">
-        <v>1585.811409518456</v>
+        <v>1528.937778937706</v>
       </c>
       <c r="E14" t="n">
-        <v>1200.023156920212</v>
+        <v>1143.149526339462</v>
       </c>
       <c r="F14" t="n">
-        <v>789.0372521306047</v>
+        <v>732.163621549854</v>
       </c>
       <c r="G14" t="n">
-        <v>374.7297709417525</v>
+        <v>374.7297709417524</v>
       </c>
       <c r="H14" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076834</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K14" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951443</v>
       </c>
       <c r="L14" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M14" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O14" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P14" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S14" t="n">
-        <v>4156.16151059908</v>
+        <v>4156.161510599077</v>
       </c>
       <c r="T14" t="n">
-        <v>4156.16151059908</v>
+        <v>3953.532414632626</v>
       </c>
       <c r="U14" t="n">
-        <v>4147.076097980317</v>
+        <v>3700.063135423755</v>
       </c>
       <c r="V14" t="n">
-        <v>3816.013210636746</v>
+        <v>3369.000248080184</v>
       </c>
       <c r="W14" t="n">
-        <v>3463.244555366632</v>
+        <v>3016.23159281007</v>
       </c>
       <c r="X14" t="n">
-        <v>3089.778797105552</v>
+        <v>2642.76583454899</v>
       </c>
       <c r="Y14" t="n">
-        <v>2699.639465129741</v>
+        <v>2642.76583454899</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H15" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J15" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K15" t="n">
-        <v>519.5985603334505</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="L15" t="n">
-        <v>973.3971899277778</v>
+        <v>301.7509472448922</v>
       </c>
       <c r="M15" t="n">
-        <v>973.3971899277778</v>
+        <v>850.6694118551811</v>
       </c>
       <c r="N15" t="n">
-        <v>1428.524759781582</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O15" t="n">
         <v>1934.929714729833</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.031270281988</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q15" t="n">
-        <v>2530.879212293268</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R15" t="n">
         <v>2555.644190323788</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>624.2282914070943</v>
+        <v>784.2663466899637</v>
       </c>
       <c r="C16" t="n">
-        <v>624.2282914070943</v>
+        <v>784.2663466899637</v>
       </c>
       <c r="D16" t="n">
-        <v>624.2282914070943</v>
+        <v>634.149707277628</v>
       </c>
       <c r="E16" t="n">
-        <v>624.2282914070943</v>
+        <v>486.2366136952348</v>
       </c>
       <c r="F16" t="n">
-        <v>477.3383439091839</v>
+        <v>339.3466661973245</v>
       </c>
       <c r="G16" t="n">
-        <v>315.1533397258817</v>
+        <v>171.9869683152617</v>
       </c>
       <c r="H16" t="n">
-        <v>171.9869683152618</v>
+        <v>171.9869683152617</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J16" t="n">
-        <v>153.8801783755867</v>
+        <v>153.8801783755866</v>
       </c>
       <c r="K16" t="n">
-        <v>396.9405013869778</v>
+        <v>396.9405013869775</v>
       </c>
       <c r="L16" t="n">
-        <v>763.5004667042035</v>
+        <v>763.5004667042031</v>
       </c>
       <c r="M16" t="n">
         <v>1160.375677726126</v>
       </c>
       <c r="N16" t="n">
-        <v>1553.248699711515</v>
+        <v>1553.248699711514</v>
       </c>
       <c r="O16" t="n">
         <v>1900.114228341785</v>
@@ -5455,31 +5455,31 @@
         <v>2173.396928727846</v>
       </c>
       <c r="Q16" t="n">
-        <v>2279.168624967671</v>
+        <v>2279.16862496767</v>
       </c>
       <c r="R16" t="n">
-        <v>2204.76693339754</v>
+        <v>2279.16862496767</v>
       </c>
       <c r="S16" t="n">
-        <v>2019.061021685725</v>
+        <v>2093.462713255855</v>
       </c>
       <c r="T16" t="n">
-        <v>1798.760544521729</v>
+        <v>1873.162236091859</v>
       </c>
       <c r="U16" t="n">
-        <v>1798.760544521729</v>
+        <v>1584.078085876223</v>
       </c>
       <c r="V16" t="n">
-        <v>1544.076056315842</v>
+        <v>1329.393597670336</v>
       </c>
       <c r="W16" t="n">
-        <v>1254.658886278881</v>
+        <v>1329.393597670336</v>
       </c>
       <c r="X16" t="n">
-        <v>1026.669335380864</v>
+        <v>1101.404046772319</v>
       </c>
       <c r="Y16" t="n">
-        <v>805.876756237334</v>
+        <v>880.611467628789</v>
       </c>
     </row>
     <row r="17">
@@ -5501,64 +5501,64 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G17" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511628</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511628</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951443</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233289</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755814</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400164</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437416</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177178</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511628</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J18" t="n">
-        <v>216.5575109835861</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>519.5985603334507</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L18" t="n">
-        <v>973.3971899277783</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.315654538068</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>1934.929714729832</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O18" t="n">
-        <v>1934.929714729832</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P18" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q18" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R18" t="n">
         <v>2555.644190323788</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502077</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477692</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609019</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039772</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315391</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749448</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511628</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K19" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040893</v>
@@ -5686,37 +5686,37 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.7471862375</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254979</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H20" t="n">
         <v>84.98040897511622</v>
@@ -5756,13 +5756,13 @@
         <v>766.6831886951459</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M20" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O20" t="n">
         <v>3311.067850233288</v>
@@ -5832,25 +5832,25 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K21" t="n">
-        <v>216.5575109835859</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L21" t="n">
-        <v>670.3561405779133</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M21" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O21" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P21" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502093</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C22" t="n">
-        <v>735.855734147771</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D22" t="n">
-        <v>617.668592060904</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039795</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315378</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G22" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H22" t="n">
         <v>140.0574709897931</v>
@@ -5908,13 +5908,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042781</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443608</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M22" t="n">
         <v>1285.552079040893</v>
@@ -5929,13 +5929,13 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T22" t="n">
         <v>2144.901839127668</v>
@@ -5953,7 +5953,7 @@
         <v>1211.444469073042</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D23" t="n">
         <v>1458.093420216582</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796678</v>
+        <v>725.1782574796676</v>
       </c>
       <c r="G23" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951448</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N23" t="n">
         <v>2681.771598889755</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
         <v>3795.851627400162</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W23" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="24">
@@ -6060,28 +6060,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177182</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
-        <v>84.98040897511625</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L24" t="n">
-        <v>538.7790385694436</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M24" t="n">
-        <v>1087.697503179733</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O24" t="n">
-        <v>1934.929714729833</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="P24" t="n">
         <v>2322.031270281989</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G25" t="n">
         <v>251.2943450749443</v>
@@ -6142,19 +6142,19 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K25" t="n">
         <v>459.5287020443612</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N25" t="n">
         <v>1709.719201354973</v>
@@ -6178,7 +6178,7 @@
         <v>2144.901839127668</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V25" t="n">
         <v>1664.992195357083</v>
@@ -6203,7 +6203,7 @@
         <v>2121.462641112806</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D26" t="n">
         <v>1458.093420216581</v>
@@ -6212,55 +6212,55 @@
         <v>1104.234664943805</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796662</v>
+        <v>725.1782574796663</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076836</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O26" t="n">
         <v>3311.067850233287</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W26" t="n">
         <v>3175.879079437413</v>
@@ -6269,7 +6269,7 @@
         <v>2834.342818501802</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J27" t="n">
-        <v>84.98040897511621</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
-        <v>388.0214583249806</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L27" t="n">
-        <v>388.0214583249806</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M27" t="n">
-        <v>936.9399229352697</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>1514.795270861672</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O27" t="n">
-        <v>1934.929714729833</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="P27" t="n">
-        <v>2322.031270281989</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="Q27" t="n">
         <v>2530.879212293269</v>
@@ -6358,64 +6358,64 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H28" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902795</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040894</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V28" t="n">
         <v>1664.992195357083</v>
@@ -6424,7 +6424,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y28" t="n">
         <v>1022.581387254981</v>
@@ -6440,70 +6440,70 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.178257479667</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076835</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951446</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T29" t="n">
         <v>4017.391409283564</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W29" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y29" t="n">
         <v>2476.13298385146</v>
@@ -6537,7 +6537,7 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J30" t="n">
         <v>216.5575109835859</v>
@@ -6546,19 +6546,19 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L30" t="n">
-        <v>973.3971899277775</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.315654538066</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
         <v>2100.171002464469</v>
       </c>
       <c r="O30" t="n">
-        <v>2168.542634771632</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="P30" t="n">
-        <v>2555.644190323788</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q30" t="n">
         <v>2555.644190323788</v>
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502088</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477705</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609033</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039787</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H31" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J31" t="n">
-        <v>185.174278704278</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443607</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902779</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313934</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028687</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
         <v>2529.521427597204</v>
@@ -6649,22 +6649,22 @@
         <v>2333.272818966195</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U31" t="n">
         <v>1887.747186237501</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X31" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6698,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
         <v>4142.907144767228</v>
@@ -6777,28 +6777,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L33" t="n">
-        <v>538.7790385694436</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M33" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O33" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P33" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G34" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H34" t="n">
         <v>140.0574709897931</v>
@@ -6859,19 +6859,19 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443605</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902787</v>
+        <v>857.382767690278</v>
       </c>
       <c r="M34" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P34" t="n">
         <v>2392.455631028688</v>
@@ -6911,52 +6911,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I35" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R35" t="n">
         <v>4249.020448755811</v>
@@ -6971,16 +6971,16 @@
         <v>3795.851627400162</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W35" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="36">
@@ -7029,7 +7029,7 @@
         <v>2100.171002464469</v>
       </c>
       <c r="O36" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
         <v>2555.644190323788</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502108</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477726</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609056</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039811</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I37" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902799</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040895</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313937</v>
       </c>
       <c r="P37" t="n">
         <v>2392.455631028689</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R37" t="n">
         <v>2487.049233352543</v>
@@ -7138,7 +7138,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>725.1782574796675</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H38" t="n">
         <v>84.98040897511622</v>
@@ -7263,13 +7263,13 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1662.137679823382</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>2168.542634771632</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="P39" t="n">
-        <v>2555.644190323788</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q39" t="n">
         <v>2555.644190323788</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477718</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F40" t="n">
         <v>386.7245456315386</v>
@@ -7324,19 +7324,19 @@
         <v>251.2943450749444</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I40" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M40" t="n">
         <v>1285.552079040893</v>
@@ -7351,31 +7351,31 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="41">
@@ -7418,10 +7418,10 @@
         <v>1336.032957050962</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O41" t="n">
         <v>3311.067850233286</v>
@@ -7503,13 +7503,13 @@
         <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>2168.542634771632</v>
+        <v>2143.777656741113</v>
       </c>
       <c r="P42" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="Q42" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477716</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E43" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749446</v>
       </c>
       <c r="H43" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897934</v>
       </c>
       <c r="I43" t="n">
         <v>84.98040897511619</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042785</v>
+        <v>185.174278704279</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443618</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902795</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q43" t="n">
         <v>2529.521427597205</v>
@@ -7594,13 +7594,13 @@
         <v>2487.049233352543</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V43" t="n">
         <v>1664.992195357083</v>
@@ -7609,7 +7609,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y43" t="n">
         <v>1022.581387254981</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.09342021658</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943804</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796655</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162819</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J44" t="n">
         <v>337.4933016076836</v>
@@ -7655,43 +7655,43 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J45" t="n">
         <v>216.5575109835859</v>
@@ -7740,13 +7740,13 @@
         <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>2168.542634771632</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="P45" t="n">
-        <v>2555.644190323788</v>
+        <v>2487.272558016625</v>
       </c>
       <c r="Q45" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7801,25 +7801,25 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042781</v>
+        <v>185.1742787042786</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443608</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P46" t="n">
         <v>2392.455631028688</v>
@@ -7834,16 +7834,16 @@
         <v>2333.272818966195</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U46" t="n">
         <v>1887.747186237501</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X46" t="n">
         <v>1211.444469073042</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>60.67557455063191</v>
+        <v>65.23786115827478</v>
       </c>
       <c r="L4" t="n">
         <v>51.99825569640058</v>
@@ -8152,7 +8152,7 @@
         <v>59.69565574609634</v>
       </c>
       <c r="P4" t="n">
-        <v>71.15065506373918</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>85.0805770862446</v>
+        <v>59.986037901885</v>
       </c>
       <c r="K5" t="n">
-        <v>38.65249250745444</v>
+        <v>38.65249250745197</v>
       </c>
       <c r="L5" t="n">
-        <v>14.64920017988912</v>
+        <v>35.77186709983147</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>14.86843828593146</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>26.12175528952523</v>
+        <v>44.96206583987</v>
       </c>
       <c r="Q5" t="n">
-        <v>68.27569035187827</v>
+        <v>68.27569035187616</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>54.73519944804855</v>
+        <v>54.73519944804757</v>
       </c>
       <c r="K6" t="n">
-        <v>14.6069065521008</v>
+        <v>14.60690655209912</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>42.56433563048732</v>
+        <v>42.56433563048599</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>79.77321457716518</v>
+        <v>54.67867539280621</v>
       </c>
       <c r="L7" t="n">
-        <v>63.84262123609142</v>
+        <v>63.84262123609346</v>
       </c>
       <c r="M7" t="n">
-        <v>63.72680115728643</v>
+        <v>63.72680115728853</v>
       </c>
       <c r="N7" t="n">
-        <v>54.87131746042846</v>
+        <v>54.87131746043059</v>
       </c>
       <c r="O7" t="n">
-        <v>48.02194588313246</v>
+        <v>73.11648506749265</v>
       </c>
       <c r="P7" t="n">
-        <v>60.34558704798211</v>
+        <v>60.34558704798106</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>29.26310570632462</v>
       </c>
       <c r="L10" t="n">
-        <v>119.3514840274684</v>
+        <v>114.8216795779765</v>
       </c>
       <c r="M10" t="n">
         <v>116.4537900083357</v>
       </c>
       <c r="N10" t="n">
-        <v>37.39724374155968</v>
+        <v>108.4136727881176</v>
       </c>
       <c r="O10" t="n">
-        <v>17.10165812996878</v>
+        <v>129.2143182548924</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>33.88793923037925</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1.747935129969846e-12</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>8.810729923425242e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -22556,13 +22556,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.857583697699593</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>9.429168768844599</v>
+        <v>13.99145537648747</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>199.340631208478</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.93700469168593</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>145.5281997320813</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>381.6756520484107</v>
+        <v>382.2194766120417</v>
       </c>
     </row>
     <row r="3">
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>168.0688818921483</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>64.81119518318235</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>51.07156191295412</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>21.59472895491433</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>56.30489427494314</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>200.6028050067863</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>241.9400279242081</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>84.45031045250026</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>5.122946761772937</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>73.65767465442975</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1933087134791</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>3.751665644813329e-12</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.77635683940025e-12</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.037392394209746e-12</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1318629.989807565</v>
+        <v>1318629.989807566</v>
       </c>
     </row>
     <row r="3">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57981.63991445708</v>
+        <v>57981.63991445709</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982122</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>51149.56484563809</v>
+        <v>51149.56484563814</v>
       </c>
       <c r="F2" t="n">
-        <v>57505.73864634828</v>
+        <v>57505.73864634825</v>
       </c>
       <c r="G2" t="n">
-        <v>61578.13273982131</v>
+        <v>61578.13273982132</v>
       </c>
       <c r="H2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982133</v>
       </c>
       <c r="I2" t="n">
-        <v>61578.1327398213</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="J2" t="n">
         <v>61578.1327398213</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982133</v>
       </c>
       <c r="L2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.1327398213</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.13273982123</v>
+        <v>61578.13273982132</v>
       </c>
       <c r="N2" t="n">
         <v>61578.13273982124</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.13273982123</v>
+        <v>61578.13273982122</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982122</v>
       </c>
     </row>
     <row r="3">
@@ -26366,40 +26366,40 @@
         <v>315841.5953976293</v>
       </c>
       <c r="C3" t="n">
-        <v>32698.16472960116</v>
+        <v>32698.16472960668</v>
       </c>
       <c r="D3" t="n">
-        <v>130922.554052231</v>
+        <v>130922.5540522258</v>
       </c>
       <c r="E3" t="n">
-        <v>707780.8576429537</v>
+        <v>707780.8576429536</v>
       </c>
       <c r="F3" t="n">
-        <v>215052.109696308</v>
+        <v>215052.1096963075</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177112</v>
+        <v>25288.16188177129</v>
       </c>
       <c r="H3" t="n">
-        <v>4.215098670101723e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.557953848736361e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1193.694917169978</v>
+        <v>1193.694917170038</v>
       </c>
       <c r="K3" t="n">
-        <v>5284.344781164007</v>
+        <v>5284.344781164898</v>
       </c>
       <c r="L3" t="n">
-        <v>47311.66512873973</v>
+        <v>47311.66512873909</v>
       </c>
       <c r="M3" t="n">
-        <v>179249.6449383017</v>
+        <v>179249.6449383015</v>
       </c>
       <c r="N3" t="n">
-        <v>56542.29359578632</v>
+        <v>56542.29359578612</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>326767.6073657045</v>
+        <v>326767.6073657047</v>
       </c>
       <c r="C4" t="n">
-        <v>344358.3433347065</v>
+        <v>344358.3433347049</v>
       </c>
       <c r="D4" t="n">
         <v>303495.7073635384</v>
@@ -26430,34 +26430,34 @@
         <v>12939.59785885153</v>
       </c>
       <c r="G4" t="n">
-        <v>44009.48294107138</v>
+        <v>44009.48294107159</v>
       </c>
       <c r="H4" t="n">
         <v>44009.48294107158</v>
       </c>
       <c r="I4" t="n">
-        <v>44009.48294107166</v>
+        <v>44009.48294107159</v>
       </c>
       <c r="J4" t="n">
+        <v>44009.48294107157</v>
+      </c>
+      <c r="K4" t="n">
+        <v>44009.48294107151</v>
+      </c>
+      <c r="L4" t="n">
         <v>44009.4829410716</v>
       </c>
-      <c r="K4" t="n">
-        <v>44009.48294107165</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>44009.48294107158</v>
+      </c>
+      <c r="N4" t="n">
         <v>44009.48294107156</v>
       </c>
-      <c r="M4" t="n">
-        <v>44009.48294107161</v>
-      </c>
-      <c r="N4" t="n">
-        <v>44009.4829410716</v>
-      </c>
       <c r="O4" t="n">
-        <v>44009.48294107168</v>
+        <v>44009.48294107169</v>
       </c>
       <c r="P4" t="n">
-        <v>44009.48294107157</v>
+        <v>44009.48294107164</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26470,46 @@
         <v>41015.74224309583</v>
       </c>
       <c r="C5" t="n">
-        <v>42888.09979601013</v>
+        <v>42888.09979601044</v>
       </c>
       <c r="D5" t="n">
         <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>92448.99600060702</v>
+        <v>92448.99600060697</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215533</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="H5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="J5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="K5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="L5" t="n">
+        <v>95106.43410215528</v>
+      </c>
+      <c r="M5" t="n">
         <v>95106.43410215527</v>
       </c>
-      <c r="M5" t="n">
-        <v>95106.43410215528</v>
-      </c>
       <c r="N5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="O5" t="n">
         <v>95106.43410215525</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215525</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-625643.3050919726</v>
+        <v>-625763.1881861517</v>
       </c>
       <c r="C6" t="n">
-        <v>-358366.4751204965</v>
+        <v>-358366.4751205008</v>
       </c>
       <c r="D6" t="n">
-        <v>-423663.5017876709</v>
+        <v>-423663.5017876656</v>
       </c>
       <c r="E6" t="n">
-        <v>-743757.7562858619</v>
+        <v>-744105.3752156679</v>
       </c>
       <c r="F6" t="n">
-        <v>-262934.9649094183</v>
+        <v>-263070.7113792002</v>
       </c>
       <c r="G6" t="n">
-        <v>-102825.9461851765</v>
+        <v>-102825.9461851768</v>
       </c>
       <c r="H6" t="n">
-        <v>-77537.78430340566</v>
+        <v>-77537.78430340554</v>
       </c>
       <c r="I6" t="n">
-        <v>-77537.78430340569</v>
+        <v>-77537.78430340561</v>
       </c>
       <c r="J6" t="n">
-        <v>-78731.47922057554</v>
+        <v>-78731.47922057557</v>
       </c>
       <c r="K6" t="n">
-        <v>-82822.12908456966</v>
+        <v>-82822.12908457033</v>
       </c>
       <c r="L6" t="n">
-        <v>-124849.4494321453</v>
+        <v>-124849.4494321447</v>
       </c>
       <c r="M6" t="n">
-        <v>-256787.4292417074</v>
+        <v>-256787.429241707</v>
       </c>
       <c r="N6" t="n">
-        <v>-134080.077899192</v>
+        <v>-134080.0778991917</v>
       </c>
       <c r="O6" t="n">
-        <v>-77537.7843034057</v>
+        <v>-77537.78430340573</v>
       </c>
       <c r="P6" t="n">
-        <v>-77537.78430340555</v>
+        <v>-77537.78430340567</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H2" t="n">
         <v>31.61020235221395</v>
       </c>
       <c r="I2" t="n">
+        <v>31.61020235221395</v>
+      </c>
+      <c r="J2" t="n">
+        <v>31.61020235221392</v>
+      </c>
+      <c r="K2" t="n">
+        <v>31.61020235221388</v>
+      </c>
+      <c r="L2" t="n">
         <v>31.61020235221398</v>
       </c>
-      <c r="J2" t="n">
-        <v>31.61020235221398</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31.61020235221398</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.61020235221394</v>
-      </c>
       <c r="M2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O2" t="n">
         <v>31.61020235221397</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="3">
@@ -26738,13 +26738,13 @@
         <v>326.1814319885848</v>
       </c>
       <c r="C3" t="n">
-        <v>354.8051290642738</v>
+        <v>354.8051290642786</v>
       </c>
       <c r="D3" t="n">
         <v>476.1157511985022</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1278.159870620123</v>
@@ -26790,16 +26790,16 @@
         <v>4.562286607642875</v>
       </c>
       <c r="C4" t="n">
-        <v>25.09453918435796</v>
+        <v>25.09453918436142</v>
       </c>
       <c r="D4" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="F4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="G4" t="n">
         <v>1062.255112188953</v>
@@ -26829,7 +26829,7 @@
         <v>1062.255112188952</v>
       </c>
       <c r="P4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
     </row>
   </sheetData>
@@ -26914,31 +26914,31 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-4.263256414560601e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H2" t="n">
-        <v>2.060573933704291e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-7.460698725481052e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.6102023522137</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="M2" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>-8.526512829121202e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>326.1814319885848</v>
       </c>
       <c r="C3" t="n">
-        <v>28.62369707568899</v>
+        <v>28.62369707569383</v>
       </c>
       <c r="D3" t="n">
-        <v>121.3106221342284</v>
+        <v>121.3106221342236</v>
       </c>
       <c r="E3" t="n">
         <v>613.660949394796</v>
       </c>
       <c r="F3" t="n">
-        <v>188.3831700268247</v>
+        <v>188.3831700268242</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,40 +27012,40 @@
         <v>4.562286607642875</v>
       </c>
       <c r="C4" t="n">
-        <v>20.53225257671508</v>
+        <v>20.53225257671854</v>
       </c>
       <c r="D4" t="n">
-        <v>87.01812094056569</v>
+        <v>87.01812094056224</v>
       </c>
       <c r="E4" t="n">
-        <v>719.2887952773692</v>
+        <v>719.2887952773693</v>
       </c>
       <c r="F4" t="n">
-        <v>230.8536567866602</v>
+        <v>230.8536567866594</v>
       </c>
       <c r="G4" t="n">
         <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4.562286607642363</v>
+        <v>4.562286607642818</v>
       </c>
       <c r="K4" t="n">
-        <v>20.53225257671508</v>
+        <v>20.53225257671854</v>
       </c>
       <c r="L4" t="n">
-        <v>87.01812094056592</v>
+        <v>87.01812094056228</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773692</v>
+        <v>719.2887952773693</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866602</v>
+        <v>230.8536567866594</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,16 +27154,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M2" t="n">
-        <v>2.060573933704291e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>4.562286607642875</v>
       </c>
       <c r="K4" t="n">
-        <v>20.53225257671508</v>
+        <v>20.53225257671854</v>
       </c>
       <c r="L4" t="n">
-        <v>87.01812094056569</v>
+        <v>87.01812094056224</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773692</v>
+        <v>719.2887952773693</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866602</v>
+        <v>230.8536567866594</v>
       </c>
       <c r="O4" t="n">
         <v>4.547473508864641e-13</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>326.0456339133427</v>
+        <v>122.1427160972218</v>
       </c>
       <c r="I2" t="n">
         <v>159.9226849201952</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S2" t="n">
         <v>179.1392278518137</v>
       </c>
       <c r="T2" t="n">
-        <v>217.3557120022016</v>
+        <v>212.7934253945587</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2407503367447</v>
+        <v>246.6784637291018</v>
       </c>
       <c r="V2" t="n">
-        <v>182.2240587380536</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27461,13 +27461,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>142.8827789569959</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>140.506925785741</v>
       </c>
       <c r="G3" t="n">
         <v>136.6419193661031</v>
@@ -27476,7 +27476,7 @@
         <v>105.4594865644317</v>
       </c>
       <c r="I3" t="n">
-        <v>65.24074378433592</v>
+        <v>60.67845717669304</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,19 +27512,19 @@
         <v>197.336797223147</v>
       </c>
       <c r="U3" t="n">
-        <v>221.8767622871533</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>247.1326965532767</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>201.2106985958346</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>201.6642337332925</v>
       </c>
     </row>
     <row r="4">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>175.2696935742944</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>162.684534490985</v>
       </c>
       <c r="D4" t="n">
-        <v>144.0531864105695</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,10 +27555,10 @@
         <v>156.9975751224423</v>
       </c>
       <c r="I4" t="n">
-        <v>133.1995296799722</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J4" t="n">
-        <v>47.75525911241137</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>150.8459592031442</v>
       </c>
       <c r="S4" t="n">
-        <v>213.7659454939867</v>
+        <v>209.2036588863439</v>
       </c>
       <c r="T4" t="n">
-        <v>220.8701016233495</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U4" t="n">
         <v>286.286945936951</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>282.5045362925791</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>380.5795309378774</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>324.867171852332</v>
+        <v>299.7726326679704</v>
       </c>
       <c r="I5" t="n">
-        <v>130.3919042021267</v>
+        <v>155.4864433864839</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>35.17647749615377</v>
+        <v>60.27101668051051</v>
       </c>
       <c r="S5" t="n">
-        <v>176.5170670594026</v>
+        <v>176.5170670594021</v>
       </c>
       <c r="T5" t="n">
-        <v>215.5011533343576</v>
+        <v>191.7574532843774</v>
       </c>
       <c r="U5" t="n">
-        <v>226.1370055412669</v>
+        <v>251.2315447256249</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>302.6577192857735</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27698,10 +27698,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>122.3505263802773</v>
       </c>
       <c r="E6" t="n">
-        <v>135.5418103418185</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>136.5803514139026</v>
       </c>
       <c r="H6" t="n">
-        <v>104.864869762916</v>
+        <v>104.8648697629159</v>
       </c>
       <c r="I6" t="n">
-        <v>38.02643080710854</v>
+        <v>38.02643080710472</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>27.68007414721101</v>
+        <v>27.68007414720689</v>
       </c>
       <c r="S6" t="n">
-        <v>132.4131628479025</v>
+        <v>157.5077020322603</v>
       </c>
       <c r="T6" t="n">
         <v>197.0886351701983</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>183.5794256637188</v>
       </c>
     </row>
     <row r="7">
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>124.3306925329867</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3511668306379</v>
       </c>
       <c r="H7" t="n">
-        <v>156.5386574873599</v>
+        <v>156.5386574873598</v>
       </c>
       <c r="I7" t="n">
-        <v>136.2095672724285</v>
+        <v>136.2095672724282</v>
       </c>
       <c r="J7" t="n">
-        <v>23.02989521538274</v>
+        <v>23.02989521537866</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.491929578631087</v>
+        <v>32.58646876298832</v>
       </c>
       <c r="R7" t="n">
-        <v>148.5250935353351</v>
+        <v>148.5250935353347</v>
       </c>
       <c r="S7" t="n">
-        <v>212.866410620313</v>
+        <v>212.8664106203129</v>
       </c>
       <c r="T7" t="n">
-        <v>225.2118449912289</v>
+        <v>200.1173058068674</v>
       </c>
       <c r="U7" t="n">
-        <v>261.1895913069791</v>
+        <v>261.1895913069756</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>230.0343732102424</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27904,7 +27904,7 @@
         <v>165.4040387101212</v>
       </c>
       <c r="T8" t="n">
-        <v>165.8698201932692</v>
+        <v>214.717169359623</v>
       </c>
       <c r="U8" t="n">
         <v>251.1925302541847</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>337.3905894896998</v>
       </c>
     </row>
     <row r="9">
@@ -27932,10 +27932,10 @@
         <v>54.42052352494369</v>
       </c>
       <c r="C9" t="n">
-        <v>60.59583886339209</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>35.3324054397151</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>36.57392307749219</v>
       </c>
       <c r="S9" t="n">
-        <v>40.54833922112496</v>
+        <v>152.6609993460486</v>
       </c>
       <c r="T9" t="n">
-        <v>133.8619870045506</v>
+        <v>196.0368949650912</v>
       </c>
       <c r="U9" t="n">
         <v>225.8740072105222</v>
@@ -27992,10 +27992,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>152.9461521228869</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>93.66032507855383</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.71932005701365</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>55.13416097370418</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,13 +28026,13 @@
         <v>167.1324099710516</v>
       </c>
       <c r="H10" t="n">
-        <v>154.5937101357652</v>
+        <v>70.11344391845303</v>
       </c>
       <c r="I10" t="n">
         <v>129.630951895051</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>32.65832442698833</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>138.6889896488451</v>
       </c>
       <c r="S10" t="n">
-        <v>209.0540751673406</v>
+        <v>96.94141504241699</v>
       </c>
       <c r="T10" t="n">
-        <v>224.2771565911783</v>
+        <v>112.1644964662546</v>
       </c>
       <c r="U10" t="n">
         <v>286.2721982989959</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>173.8877135987133</v>
+        <v>113.5969952641135</v>
       </c>
       <c r="Y10" t="n">
-        <v>106.4719932271711</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605488</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="20">
@@ -28980,7 +28980,7 @@
         <v>31.61020235221395</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="K22" t="n">
         <v>31.61020235221395</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605497</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221298</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221398</v>
+        <v>31.6102023522148</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221298</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I29" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221318</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605497</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221525</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221457</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221429</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="41">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221585</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
   </sheetData>
@@ -31133,7 +31133,7 @@
         <v>113.2926583162616</v>
       </c>
       <c r="L3" t="n">
-        <v>143.1166663875171</v>
+        <v>142.932331575087</v>
       </c>
       <c r="M3" t="n">
         <v>146.6963205296612</v>
@@ -31142,7 +31142,7 @@
         <v>135.9039986909762</v>
       </c>
       <c r="O3" t="n">
-        <v>146.9741962396573</v>
+        <v>147.1585310520873</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.426352277645321</v>
+        <v>1.42635227764534</v>
       </c>
       <c r="H5" t="n">
-        <v>14.60763026343514</v>
+        <v>14.60763026343534</v>
       </c>
       <c r="I5" t="n">
-        <v>54.98944618392128</v>
+        <v>54.98944618392203</v>
       </c>
       <c r="J5" t="n">
-        <v>121.0598666247996</v>
+        <v>121.0598666248013</v>
       </c>
       <c r="K5" t="n">
-        <v>181.4373585375261</v>
+        <v>181.4373585375286</v>
       </c>
       <c r="L5" t="n">
-        <v>225.0890870545141</v>
+        <v>225.0890870545172</v>
       </c>
       <c r="M5" t="n">
-        <v>250.4549793720891</v>
+        <v>250.4549793720925</v>
       </c>
       <c r="N5" t="n">
-        <v>254.5076027809489</v>
+        <v>254.5076027809523</v>
       </c>
       <c r="O5" t="n">
-        <v>240.3243123201132</v>
+        <v>240.3243123201165</v>
       </c>
       <c r="P5" t="n">
-        <v>205.1112404657443</v>
+        <v>205.1112404657471</v>
       </c>
       <c r="Q5" t="n">
-        <v>154.0299995225712</v>
+        <v>154.0299995225733</v>
       </c>
       <c r="R5" t="n">
-        <v>89.59810126063796</v>
+        <v>89.59810126063917</v>
       </c>
       <c r="S5" t="n">
-        <v>32.50300252684278</v>
+        <v>32.50300252684322</v>
       </c>
       <c r="T5" t="n">
-        <v>6.243857095392395</v>
+        <v>6.243857095392479</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1141081822116256</v>
+        <v>0.1141081822116272</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7631657493080606</v>
+        <v>0.763165749308071</v>
       </c>
       <c r="H6" t="n">
-        <v>7.370574473580481</v>
+        <v>7.370574473580581</v>
       </c>
       <c r="I6" t="n">
-        <v>26.27566285994858</v>
+        <v>26.27566285994894</v>
       </c>
       <c r="J6" t="n">
-        <v>72.10242721861815</v>
+        <v>72.10242721861913</v>
       </c>
       <c r="K6" t="n">
-        <v>123.2345324222582</v>
+        <v>123.2345324222599</v>
       </c>
       <c r="L6" t="n">
-        <v>163.6489189642321</v>
+        <v>163.6489189642356</v>
       </c>
       <c r="M6" t="n">
-        <v>167.2285731063763</v>
+        <v>167.2285731063797</v>
       </c>
       <c r="N6" t="n">
-        <v>156.4362512676913</v>
+        <v>143.6655519710449</v>
       </c>
       <c r="O6" t="n">
-        <v>154.9200843321547</v>
+        <v>167.6907836288059</v>
       </c>
       <c r="P6" t="n">
-        <v>145.7311859358524</v>
+        <v>145.7311859358544</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.4174384555342</v>
+        <v>97.41743845553553</v>
       </c>
       <c r="R6" t="n">
-        <v>47.38322082107417</v>
+        <v>47.38322082107481</v>
       </c>
       <c r="S6" t="n">
-        <v>14.17546907157734</v>
+        <v>14.17546907157754</v>
       </c>
       <c r="T6" t="n">
-        <v>3.076093524623278</v>
+        <v>3.07609352462332</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05020827298079348</v>
+        <v>0.05020827298079417</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6398125278208215</v>
+        <v>0.6398125278208302</v>
       </c>
       <c r="H7" t="n">
-        <v>5.688515020079672</v>
+        <v>5.688515020079749</v>
       </c>
       <c r="I7" t="n">
-        <v>19.2409076548298</v>
+        <v>19.24090765483006</v>
       </c>
       <c r="J7" t="n">
-        <v>45.23474571693207</v>
+        <v>45.23474571693269</v>
       </c>
       <c r="K7" t="n">
-        <v>74.33458277772816</v>
+        <v>74.33458277772917</v>
       </c>
       <c r="L7" t="n">
-        <v>95.12267345437924</v>
+        <v>95.12267345438053</v>
       </c>
       <c r="M7" t="n">
-        <v>100.2935219746766</v>
+        <v>100.2935219746779</v>
       </c>
       <c r="N7" t="n">
-        <v>97.90876618916269</v>
+        <v>97.90876618916403</v>
       </c>
       <c r="O7" t="n">
-        <v>90.43459256871033</v>
+        <v>90.43459256871157</v>
       </c>
       <c r="P7" t="n">
-        <v>77.38241700116551</v>
+        <v>77.38241700116656</v>
       </c>
       <c r="Q7" t="n">
-        <v>53.57557448870534</v>
+        <v>53.57557448870607</v>
       </c>
       <c r="R7" t="n">
-        <v>28.76829784183439</v>
+        <v>28.76829784183478</v>
       </c>
       <c r="S7" t="n">
-        <v>11.15018741665922</v>
+        <v>11.15018741665937</v>
       </c>
       <c r="T7" t="n">
-        <v>2.733744437052601</v>
+        <v>2.733744437052637</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03489886515386303</v>
+        <v>0.03489886515386351</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31610,10 +31610,10 @@
         <v>222.3595307837911</v>
       </c>
       <c r="M9" t="n">
-        <v>254.246694046942</v>
+        <v>199.9629954989595</v>
       </c>
       <c r="N9" t="n">
-        <v>189.1706736602745</v>
+        <v>243.454372208257</v>
       </c>
       <c r="O9" t="n">
         <v>243.6589731628788</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171343</v>
       </c>
       <c r="H14" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879728</v>
       </c>
       <c r="I14" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J14" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383704</v>
       </c>
       <c r="K14" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171635</v>
       </c>
       <c r="L14" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869749</v>
       </c>
       <c r="M14" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654295</v>
       </c>
       <c r="N14" t="n">
-        <v>916.8452708117592</v>
+        <v>916.845270811759</v>
       </c>
       <c r="O14" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565676</v>
       </c>
       <c r="P14" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829624</v>
       </c>
       <c r="Q14" t="n">
-        <v>554.8819566972012</v>
+        <v>554.881956697201</v>
       </c>
       <c r="R14" t="n">
-        <v>322.7706933581561</v>
+        <v>322.7706933581559</v>
       </c>
       <c r="S14" t="n">
         <v>117.0897208110796</v>
@@ -32029,7 +32029,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H15" t="n">
-        <v>26.55196259533501</v>
+        <v>26.551962595335</v>
       </c>
       <c r="I15" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781098</v>
       </c>
       <c r="J15" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K15" t="n">
-        <v>443.9435090247271</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>596.9368339155585</v>
+        <v>224.6083558013958</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879668</v>
       </c>
       <c r="N15" t="n">
-        <v>591.0665301174793</v>
+        <v>715.0339827160627</v>
       </c>
       <c r="O15" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578282</v>
       </c>
       <c r="P15" t="n">
-        <v>524.9860796892351</v>
+        <v>524.9860796892349</v>
       </c>
       <c r="Q15" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R15" t="n">
-        <v>170.6946332877214</v>
+        <v>170.6946332877213</v>
       </c>
       <c r="S15" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T15" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216614</v>
       </c>
       <c r="H16" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092591</v>
       </c>
       <c r="I16" t="n">
-        <v>69.31398118051422</v>
+        <v>69.3139811805142</v>
       </c>
       <c r="J16" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K16" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L16" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692047</v>
       </c>
       <c r="M16" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754552</v>
       </c>
       <c r="N16" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696481</v>
       </c>
       <c r="O16" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246175</v>
       </c>
       <c r="P16" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381984</v>
       </c>
       <c r="Q16" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R16" t="n">
-        <v>103.6357167227398</v>
+        <v>103.6357167227397</v>
       </c>
       <c r="S16" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T16" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925531</v>
       </c>
       <c r="U16" t="n">
         <v>0.1257206430118155</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171346</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879732</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I17" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K17" t="n">
-        <v>653.614989517164</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869755</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654302</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117595</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565681</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P17" t="n">
-        <v>738.898440582963</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972014</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R17" t="n">
-        <v>322.7706933581562</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S17" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T17" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.749249533031964</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H18" t="n">
-        <v>26.55196259533502</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781105</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J18" t="n">
-        <v>259.7437903115857</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
-        <v>443.9435090247272</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155586</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M18" t="n">
-        <v>696.5971294879672</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N18" t="n">
-        <v>548.1235910649134</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9860796892353</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>170.6946332877215</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486999</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T18" t="n">
-        <v>11.08140491603673</v>
+        <v>11.08140491603672</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.304878455216616</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H19" t="n">
-        <v>20.49246481092593</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I19" t="n">
-        <v>69.31398118051425</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L19" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M19" t="n">
-        <v>361.3001745754555</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N19" t="n">
-        <v>352.7092639696484</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246178</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P19" t="n">
-        <v>278.7645724381986</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R19" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227501</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925538</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32552,28 +32552,28 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L21" t="n">
         <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
-        <v>324.2686513738034</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N21" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P21" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486996</v>
@@ -32786,10 +32786,10 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L24" t="n">
         <v>596.9368339155584</v>
@@ -32798,13 +32798,13 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N24" t="n">
-        <v>475.6116682468181</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>524.986079689235</v>
+        <v>358.0756880380876</v>
       </c>
       <c r="Q24" t="n">
         <v>350.9392912691326</v>
@@ -33023,13 +33023,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K27" t="n">
         <v>443.943509024727</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M27" t="n">
         <v>696.5971294879669</v>
@@ -33038,13 +33038,13 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O27" t="n">
-        <v>566.9744705739</v>
+        <v>577.6550422513128</v>
       </c>
       <c r="P27" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>170.6946332877214</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H29" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I29" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J29" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K29" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L29" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M29" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N29" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O29" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P29" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q29" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R29" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S29" t="n">
         <v>117.0897208110796</v>
@@ -33254,34 +33254,34 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H30" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I30" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J30" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
-        <v>443.9435090247269</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L30" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M30" t="n">
-        <v>696.5971294879668</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N30" t="n">
-        <v>715.0339827160627</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O30" t="n">
-        <v>211.6584993001656</v>
+        <v>391.712654391959</v>
       </c>
       <c r="P30" t="n">
-        <v>524.9860796892349</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H31" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I31" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J31" t="n">
         <v>162.9549067838146</v>
@@ -33345,31 +33345,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L31" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M31" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N31" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O31" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P31" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q31" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R31" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S31" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T31" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U31" t="n">
         <v>0.1257206430118155</v>
@@ -33497,31 +33497,31 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L33" t="n">
         <v>596.9368339155584</v>
       </c>
       <c r="M33" t="n">
-        <v>457.1748150187223</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N33" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578283</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P33" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>51.06610426486996</v>
@@ -33749,10 +33749,10 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>211.6584993001651</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P36" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33983,16 +33983,16 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N39" t="n">
-        <v>272.5760810583997</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>524.986079689235</v>
+        <v>383.0908173618448</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34223,7 +34223,7 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O42" t="n">
-        <v>211.6584993001651</v>
+        <v>186.643369976408</v>
       </c>
       <c r="P42" t="n">
         <v>524.986079689235</v>
@@ -34232,7 +34232,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486996</v>
@@ -34372,7 +34372,7 @@
         <v>653.6149895171636</v>
       </c>
       <c r="L44" t="n">
-        <v>810.8671910869759</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M44" t="n">
         <v>902.2459874654296</v>
@@ -34384,7 +34384,7 @@
         <v>865.7509905565677</v>
       </c>
       <c r="P44" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829615</v>
       </c>
       <c r="Q44" t="n">
         <v>554.8819566972011</v>
@@ -34460,16 +34460,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O45" t="n">
-        <v>211.6584993001651</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>184.028899617985</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486996</v>
@@ -34781,7 +34781,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.562286607642875</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="M3" t="n">
         <v>4.562286607642875</v>
@@ -34790,7 +34790,7 @@
         <v>4.562286607642875</v>
       </c>
       <c r="O3" t="n">
-        <v>4.377951795212859</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="L4" t="n">
         <v>4.562286607642875</v>
@@ -34872,7 +34872,7 @@
         <v>4.377951795212859</v>
       </c>
       <c r="P4" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>25.09453918435796</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>3.97187226441601</v>
+        <v>25.09453918436142</v>
       </c>
       <c r="M5" t="n">
-        <v>20.10874614481637</v>
+        <v>20.10874614481978</v>
       </c>
       <c r="N5" t="n">
-        <v>25.09453918435796</v>
+        <v>25.09453918436142</v>
       </c>
       <c r="O5" t="n">
-        <v>25.09453918435796</v>
+        <v>10.22610089842976</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>18.84031055034759</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>25.09453918435796</v>
+        <v>25.09453918436142</v>
       </c>
       <c r="M6" t="n">
-        <v>25.09453918435796</v>
+        <v>25.09453918436142</v>
       </c>
       <c r="N6" t="n">
-        <v>25.09453918435796</v>
+        <v>12.32383988771159</v>
       </c>
       <c r="O6" t="n">
-        <v>12.32383988771025</v>
+        <v>25.09453918436142</v>
       </c>
       <c r="P6" t="n">
-        <v>11.75677852152214</v>
+        <v>11.75677852152413</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,19 +35094,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>25.09453918435796</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>24.08061840923238</v>
+        <v>24.08061840923571</v>
       </c>
       <c r="M7" t="n">
-        <v>25.09453918435796</v>
+        <v>25.09453918436142</v>
       </c>
       <c r="N7" t="n">
-        <v>25.09453918435796</v>
+        <v>25.09453918436142</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>25.09453918436142</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>83.8051510039169</v>
       </c>
       <c r="M9" t="n">
+        <v>57.82896157694119</v>
+      </c>
+      <c r="N9" t="n">
         <v>112.1126601249237</v>
-      </c>
-      <c r="N9" t="n">
-        <v>57.82896157694119</v>
       </c>
       <c r="O9" t="n">
         <v>101.0627287184343</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>77.4806606383279</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>112.1126601249237</v>
+        <v>107.5828556754318</v>
       </c>
       <c r="M10" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="N10" t="n">
-        <v>41.0962310783657</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="P10" t="n">
-        <v>101.1186240836619</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K14" t="n">
-        <v>433.5251384721832</v>
+        <v>433.525138472183</v>
       </c>
       <c r="L14" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169876</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381568</v>
       </c>
       <c r="N14" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O14" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348808</v>
       </c>
       <c r="P14" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q14" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227514</v>
       </c>
       <c r="R14" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K15" t="n">
-        <v>306.1020700503681</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>458.3824541356843</v>
+        <v>86.05397602152159</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>554.4630955659484</v>
       </c>
       <c r="N15" t="n">
-        <v>459.724818034146</v>
+        <v>583.6922706327294</v>
       </c>
       <c r="O15" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133838</v>
       </c>
       <c r="P15" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749046</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.9575171831112</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R15" t="n">
-        <v>25.01512932375746</v>
+        <v>25.01512932375738</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.59572666714189</v>
+        <v>69.59572666714183</v>
       </c>
       <c r="K16" t="n">
-        <v>245.5154777892838</v>
+        <v>245.5154777892837</v>
       </c>
       <c r="L16" t="n">
-        <v>370.2625912295209</v>
+        <v>370.2625912295208</v>
       </c>
       <c r="M16" t="n">
-        <v>400.8840515372959</v>
+        <v>400.8840515372958</v>
       </c>
       <c r="N16" t="n">
-        <v>396.8414363488769</v>
+        <v>396.8414363488768</v>
       </c>
       <c r="O16" t="n">
-        <v>350.3692208386573</v>
+        <v>350.3692208386572</v>
       </c>
       <c r="P16" t="n">
-        <v>276.043131703092</v>
+        <v>276.0431317030919</v>
       </c>
       <c r="Q16" t="n">
-        <v>106.8400972119442</v>
+        <v>106.8400972119441</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721834</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169883</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381575</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348814</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276934</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227519</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R17" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>132.906163644919</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K18" t="n">
-        <v>306.1020700503682</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356844</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M18" t="n">
-        <v>554.4630955659488</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>416.7818789815801</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749051</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9575171831113</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.01512932375752</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101.2059290193557</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
         <v>432.4942538895098</v>
@@ -36057,10 +36057,10 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P19" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L21" t="n">
         <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
-        <v>182.1346174517851</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O21" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K22" t="n">
         <v>277.1256801414978</v>
@@ -36379,7 +36379,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1851555440256</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L24" t="n">
         <v>458.3824541356842</v>
@@ -36446,13 +36446,13 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>344.2699561634848</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O24" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749048</v>
+        <v>224.1012806237574</v>
       </c>
       <c r="Q24" t="n">
         <v>210.9575171831111</v>
@@ -36522,13 +36522,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908702</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
         <v>307.6533340553059</v>
@@ -36601,7 +36601,7 @@
         <v>575.1007761169878</v>
       </c>
       <c r="M26" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N26" t="n">
         <v>687.4322072151681</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K27" t="n">
         <v>306.102070050368</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M27" t="n">
         <v>554.4630955659486</v>
@@ -36686,13 +36686,13 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O27" t="n">
-        <v>424.3782261294556</v>
+        <v>435.0587978068684</v>
       </c>
       <c r="P27" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>25.01512932375741</v>
@@ -36753,19 +36753,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817357</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010897</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P28" t="n">
         <v>307.6533340553059</v>
@@ -36832,28 +36832,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K29" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L29" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M29" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N29" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O29" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P29" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q29" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R29" t="n">
-        <v>107.1851555440247</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>306.102070050368</v>
       </c>
       <c r="L30" t="n">
-        <v>458.3824541356841</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M30" t="n">
-        <v>554.4630955659484</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6922706327294</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O30" t="n">
-        <v>69.06225485572118</v>
+        <v>249.1164099475146</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749046</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L31" t="n">
         <v>401.8727935817348</v>
@@ -36999,16 +36999,16 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O31" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L33" t="n">
         <v>458.3824541356842</v>
       </c>
       <c r="M33" t="n">
-        <v>315.040781096704</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>511.5201565133839</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P33" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414977</v>
+        <v>277.125680141497</v>
       </c>
       <c r="L34" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P34" t="n">
         <v>307.6533340553059</v>
@@ -37327,7 +37327,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R35" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440247</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>69.06225485572071</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P36" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L37" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817362</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P37" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q37" t="n">
         <v>138.4502995641581</v>
@@ -37631,16 +37631,16 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
-        <v>141.2343689750664</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749048</v>
+        <v>249.1164099475146</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M40" t="n">
         <v>432.4942538895098</v>
@@ -37716,7 +37716,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q40" t="n">
         <v>138.4502995641581</v>
@@ -37871,7 +37871,7 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O42" t="n">
-        <v>69.06225485572071</v>
+        <v>44.04712553196353</v>
       </c>
       <c r="P42" t="n">
         <v>391.0116722749048</v>
@@ -37880,7 +37880,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>433.5251384721831</v>
       </c>
       <c r="L44" t="n">
-        <v>575.1007761169886</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M44" t="n">
         <v>671.8997542381569</v>
@@ -38032,7 +38032,7 @@
         <v>635.6527791348809</v>
       </c>
       <c r="P44" t="n">
-        <v>507.665444827693</v>
+        <v>507.665444827692</v>
       </c>
       <c r="Q44" t="n">
         <v>332.5762668227516</v>
@@ -38108,16 +38108,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O45" t="n">
-        <v>69.06225485572071</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>44.04712553196353</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M46" t="n">
         <v>432.4942538895098</v>
